--- a/Full Stack/Python/properties of non primitive datatypes.xlsx
+++ b/Full Stack/Python/properties of non primitive datatypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>properties</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>dictionary {;}</t>
+  </si>
+  <si>
+    <t>combination of data types can be stored</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,9 +398,10 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +417,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -430,8 +437,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -448,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -465,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>

--- a/Full Stack/Python/properties of non primitive datatypes.xlsx
+++ b/Full Stack/Python/properties of non primitive datatypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>properties</t>
   </si>
@@ -389,7 +389,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,6 +399,7 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -457,6 +458,9 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -473,6 +477,9 @@
       </c>
       <c r="E4" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/Full Stack/Python/properties of non primitive datatypes.xlsx
+++ b/Full Stack/Python/properties of non primitive datatypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>properties</t>
   </si>
@@ -389,7 +389,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,6 +496,9 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
